--- a/moli.xlsx
+++ b/moli.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" activeTab="1"/>
+    <workbookView windowWidth="18480" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱及需求" sheetId="1" r:id="rId1"/>
@@ -183,8 +183,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -202,9 +202,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,14 +246,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +276,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,38 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +316,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,15 +324,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,14 +332,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,13 +351,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -379,169 +379,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,25 +615,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +644,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -664,15 +688,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,168 +711,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1792,9 +1792,9 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2127,7 +2127,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:6">
+    <row r="22" ht="20.1" customHeight="1" spans="1:12">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2138,6 +2138,9 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
+      <c r="L22" s="1">
+        <v>1111</v>
+      </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:6">
       <c r="A23" s="3">
@@ -2237,19 +2240,19 @@
         <v>50</v>
       </c>
       <c r="C30" s="3">
-        <f>SUM(C2:C29)</f>
+        <f t="shared" ref="C30:F30" si="0">SUM(C2:C29)</f>
         <v>104</v>
       </c>
       <c r="D30" s="3">
-        <f>SUM(D2:D29)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="E30" s="3">
-        <f>SUM(E2:E29)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="F30" s="3">
-        <f>SUM(F2:F29)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>

--- a/moli.xlsx
+++ b/moli.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>料理</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>79</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>0273</t>
@@ -201,13 +213,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -223,10 +228,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,11 +243,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,7 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,9 +271,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,14 +319,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -316,7 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,13 +337,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +356,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -379,25 +391,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,127 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,21 +627,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -647,8 +644,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,15 +694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,15 +715,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -716,152 +728,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,6 +890,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,13 +1424,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1539,16 +1557,16 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1672,16 +1690,16 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1789,12 +1807,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1834,13 +1852,17 @@
         <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:6">
       <c r="A3" s="3">
@@ -1849,11 +1871,17 @@
       <c r="B3" s="5">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
       <c r="F3" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:6">
@@ -1863,12 +1891,18 @@
       <c r="B4" s="5">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
       <c r="D4" s="3">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:6">
       <c r="A5" s="3">
@@ -1881,13 +1915,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:6">
@@ -1898,13 +1932,17 @@
         <v>98</v>
       </c>
       <c r="C6" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:6">
       <c r="A7" s="3">
@@ -1913,11 +1951,17 @@
       <c r="B7" s="5">
         <v>97</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
       <c r="F7" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:6">
@@ -1927,12 +1971,18 @@
       <c r="B8" s="3">
         <v>96</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
       <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:6">
       <c r="A9" s="3">
@@ -1942,11 +1992,17 @@
         <v>95</v>
       </c>
       <c r="C9" s="3">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:6">
       <c r="A10" s="3">
@@ -1955,12 +2011,18 @@
       <c r="B10" s="3">
         <v>94</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
       <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:6">
       <c r="A11" s="3">
@@ -1970,12 +2032,16 @@
         <v>32</v>
       </c>
       <c r="C11" s="3">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:6">
@@ -1985,14 +2051,18 @@
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:6">
       <c r="A13" s="3">
@@ -2001,12 +2071,18 @@
       <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
       <c r="E13" s="3">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:13">
       <c r="A14" s="3">
@@ -2015,12 +2091,18 @@
       <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
       <c r="E14" s="3">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2035,11 +2117,17 @@
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
       <c r="F15" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>38</v>
@@ -2052,12 +2140,18 @@
       <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
       <c r="D16" s="3">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:6">
       <c r="A17" s="3">
@@ -2067,9 +2161,11 @@
         <v>40</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
       <c r="E17" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -2082,9 +2178,11 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:6">
@@ -2094,11 +2192,17 @@
       <c r="B19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
       <c r="F19" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:6">
@@ -2123,11 +2227,15 @@
         <v>44</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:12">
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="1:6">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2136,11 +2244,10 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>20</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="L22" s="1">
-        <v>1111</v>
-      </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:6">
       <c r="A23" s="3">
@@ -2152,7 +2259,9 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="1:6">
       <c r="A24" s="3">
@@ -2162,8 +2271,12 @@
         <v>47</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="3">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.5</v>
+      </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="1:6">
@@ -2173,7 +2286,9 @@
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>11</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2182,20 +2297,22 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>78</v>
+      <c r="B26" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="1:6">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
-        <v>545</v>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2206,8 +2323,8 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>49</v>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2218,80 +2335,128 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
-        <v>5020</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4</v>
-      </c>
+      <c r="B29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" ht="20.1" customHeight="1" spans="1:6">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:F30" si="0">SUM(C2:C29)</f>
-        <v>104</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="3">
+      <c r="B30" s="7">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>545</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5020</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="20.1" customHeight="1" spans="1:6">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="3">
+        <f>SUM(C2:C33)</f>
+        <v>83</v>
+      </c>
+      <c r="D34" s="3">
+        <f>SUM(D2:D33)</f>
+        <v>87</v>
+      </c>
+      <c r="E34" s="3">
+        <f>SUM(E2:E33)</f>
+        <v>102.5</v>
+      </c>
+      <c r="F34" s="3">
+        <f>SUM(F2:F33)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="3">
         <v>0.5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D35" s="3">
         <v>0.5</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E35" s="3">
         <v>0.5</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F35" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8">
-        <f>MIN(C30:F30)/0.5/3</f>
-        <v>52</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10">
+        <f>MIN(C34:F34)/0.5/3</f>
+        <v>55.3333333333333</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
